--- a/2014 data.xlsx
+++ b/2014 data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/group23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4316C0BF-6450-184D-9398-522CC8547D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA7B49-63B8-C241-B8B6-0F05794D51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="24460" windowHeight="16260" xr2:uid="{37C820EF-1D58-D945-81CF-68D7AB62C7C7}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="24460" windowHeight="16200" xr2:uid="{37C820EF-1D58-D945-81CF-68D7AB62C7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,109 +42,109 @@
     <t>Broughs</t>
   </si>
   <si>
-    <t xml:space="preserve">City of London LB </t>
-  </si>
-  <si>
-    <t>Barking and Dagenham LB</t>
-  </si>
-  <si>
-    <t>Barnet LB</t>
-  </si>
-  <si>
-    <t>Bexley LB</t>
-  </si>
-  <si>
-    <t>Brent LB</t>
-  </si>
-  <si>
-    <t>Bromley LB</t>
-  </si>
-  <si>
-    <t>Camden LB</t>
-  </si>
-  <si>
-    <t>Croydon LB</t>
-  </si>
-  <si>
-    <t>Ealing LB</t>
-  </si>
-  <si>
-    <t>Enfield LB</t>
-  </si>
-  <si>
-    <t>Greenwich LB</t>
-  </si>
-  <si>
-    <t>Hackney LB</t>
-  </si>
-  <si>
-    <t>Hammersmith and Fulham LB</t>
-  </si>
-  <si>
-    <t>Haringey LB</t>
-  </si>
-  <si>
-    <t>Harrow LB</t>
-  </si>
-  <si>
-    <t>Havering LB</t>
-  </si>
-  <si>
-    <t>Hillingdon LB</t>
-  </si>
-  <si>
-    <t>Hounslow LB</t>
-  </si>
-  <si>
-    <t>Islington LB</t>
-  </si>
-  <si>
-    <t>Kensington and Chelsea LB</t>
-  </si>
-  <si>
-    <t>Kingston upon Thames LB</t>
-  </si>
-  <si>
-    <t>Lambeth LB</t>
-  </si>
-  <si>
-    <t>Lewisham LB</t>
-  </si>
-  <si>
-    <t>Merton LB</t>
-  </si>
-  <si>
-    <t>Newham LB</t>
-  </si>
-  <si>
-    <t>Redbridge LB</t>
-  </si>
-  <si>
-    <t>Richmond upon Thames LB</t>
-  </si>
-  <si>
-    <t>Southwark LB</t>
-  </si>
-  <si>
-    <t>Sutton LB</t>
-  </si>
-  <si>
-    <t>Tower Hamlets LB</t>
-  </si>
-  <si>
-    <t>Waltham Forest LB</t>
-  </si>
-  <si>
-    <t>Wandsworth LB</t>
-  </si>
-  <si>
-    <t>Westminster, City of LB</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
     <t>Mean of Income</t>
+  </si>
+  <si>
+    <t>City of London</t>
+  </si>
+  <si>
+    <t>Barking and Dagenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnet </t>
+  </si>
+  <si>
+    <t>Bexley</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Croydon</t>
+  </si>
+  <si>
+    <t>Ealing</t>
+  </si>
+  <si>
+    <t>Enfield</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>Hackney</t>
+  </si>
+  <si>
+    <t>Hammersmith and Fulham</t>
+  </si>
+  <si>
+    <t>Haringey</t>
+  </si>
+  <si>
+    <t>Harrow</t>
+  </si>
+  <si>
+    <t>Havering</t>
+  </si>
+  <si>
+    <t>Hillingdon</t>
+  </si>
+  <si>
+    <t>Hounslow</t>
+  </si>
+  <si>
+    <t>Islington</t>
+  </si>
+  <si>
+    <t>Kensington and Chelsea</t>
+  </si>
+  <si>
+    <t>Kingston upon Thames</t>
+  </si>
+  <si>
+    <t>Lambeth</t>
+  </si>
+  <si>
+    <t>Lewisham</t>
+  </si>
+  <si>
+    <t>Merton</t>
+  </si>
+  <si>
+    <t>Newham</t>
+  </si>
+  <si>
+    <t>Redbridge</t>
+  </si>
+  <si>
+    <t>Richmond upon Thames</t>
+  </si>
+  <si>
+    <t>Southwark</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Tower Hamlets</t>
+  </si>
+  <si>
+    <t>Waltham Forest</t>
+  </si>
+  <si>
+    <t>Wandsworth</t>
+  </si>
+  <si>
+    <t>Westminster, City of</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,15 +553,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>14</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>28</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>23</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>36</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>13</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>31</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>8</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>23</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>15</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>31</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>11</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>22</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>20</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>21</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>17</v>

--- a/2014 data.xlsx
+++ b/2014 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/group23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA7B49-63B8-C241-B8B6-0F05794D51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8682FC-0141-0243-9A8C-6ADFF45F1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="24460" windowHeight="16200" xr2:uid="{37C820EF-1D58-D945-81CF-68D7AB62C7C7}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Suicide Rates</t>
   </si>
   <si>
-    <t>Broughs</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Westminster, City of</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -533,9 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2C7CF1-A88E-274C-B728-638B4149C5AD}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -547,21 +545,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -575,7 +573,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -589,7 +587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
@@ -603,7 +601,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>14</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -631,7 +629,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>28</v>
@@ -645,7 +643,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>23</v>
@@ -659,7 +657,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>36</v>
@@ -673,7 +671,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -687,7 +685,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>13</v>
@@ -701,7 +699,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
@@ -715,7 +713,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -729,7 +727,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -743,7 +741,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>31</v>
@@ -757,7 +755,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -771,7 +769,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -785,7 +783,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>8</v>
@@ -799,7 +797,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -813,7 +811,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
@@ -827,7 +825,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -841,7 +839,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -869,7 +867,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -883,7 +881,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
@@ -897,7 +895,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>23</v>
@@ -911,7 +909,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>15</v>
@@ -925,7 +923,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -939,7 +937,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>31</v>
@@ -953,7 +951,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>11</v>
@@ -967,7 +965,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>22</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>20</v>
@@ -995,7 +993,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>21</v>
@@ -1009,7 +1007,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>17</v>

--- a/2014 data.xlsx
+++ b/2014 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/group23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8682FC-0141-0243-9A8C-6ADFF45F1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D11681-2547-0447-B5B8-76AF6AB95BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="24460" windowHeight="16200" xr2:uid="{37C820EF-1D58-D945-81CF-68D7AB62C7C7}"/>
   </bookViews>
@@ -141,10 +141,10 @@
     <t>Wandsworth</t>
   </si>
   <si>
-    <t>Westminster, City of</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Westminster</t>
   </si>
 </sst>
 </file>
@@ -531,9 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2C7CF1-A88E-274C-B728-638B4149C5AD}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -545,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -559,465 +561,629 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.06</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D2" s="6">
-        <v>151000</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.1000000000000003E-2</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D3" s="6">
-        <v>24600</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.9000000000000001E-2</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.10299999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>45500</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>14</v>
-      </c>
       <c r="C5" s="5">
-        <v>9.4E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D5" s="6">
-        <v>29600</v>
+        <v>35800</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D6" s="6">
-        <v>29700</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5">
-        <v>0.10299999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>39000</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>9.1999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>78900</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>31800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D10" s="6">
-        <v>34500</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.113</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D11" s="6">
-        <v>32900</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D12" s="6">
-        <v>34200</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>0.106</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D13" s="6">
-        <v>36300</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>9</v>
-      </c>
       <c r="C14" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D14" s="6">
-        <v>61300</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D15" s="6">
-        <v>39100</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D16" s="6">
-        <v>36000</v>
+        <v>29600</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
-        <v>9.9000000000000005E-2</v>
+        <v>0.113</v>
       </c>
       <c r="D17" s="6">
-        <v>31300</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
-        <v>8.6999999999999994E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D18" s="6">
-        <v>31300</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D19" s="6">
-        <v>35800</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="D20" s="6">
-        <v>51900</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D21" s="6">
-        <v>156000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D22" s="6">
-        <v>41900</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
-        <v>8.7999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D23" s="6">
-        <v>40600</v>
+        <v>59900</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5">
-        <v>9.2999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D24" s="6">
-        <v>31500</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D25" s="6">
-        <v>48700</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6">
-        <v>24800</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5">
-        <v>6.3E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D27" s="6">
-        <v>33100</v>
+        <v>78900</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D28" s="6">
-        <v>64000</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5">
-        <v>9.0999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="D29" s="6">
-        <v>40500</v>
+        <v>51900</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="5">
         <v>0.106</v>
       </c>
       <c r="D30" s="6">
-        <v>32800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D31" s="6">
-        <v>40800</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5">
-        <v>7.8E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D32" s="6">
-        <v>27000</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5">
-        <v>7.8E-2</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D33" s="6">
-        <v>59900</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.06</v>
       </c>
       <c r="D34" s="6">
-        <v>107000</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="D81" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
